--- a/doc/SLIP GAJI BSTR 3.xlsx
+++ b/doc/SLIP GAJI BSTR 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7935" firstSheet="55" activeTab="55"/>
+    <workbookView windowWidth="19890" windowHeight="7935" firstSheet="55" activeTab="55"/>
   </bookViews>
   <sheets>
     <sheet name="Win (43)" sheetId="61" r:id="rId1"/>
@@ -623,12 +623,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]mmmm\-yy;@"/>
-    <numFmt numFmtId="178" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -687,7 +687,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -702,29 +786,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,75 +794,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,7 +808,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -823,17 +816,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -846,7 +846,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,43 +984,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,19 +996,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,103 +1026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,31 +1192,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,6 +1227,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1266,6 +1262,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1274,160 +1285,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1466,10 +1466,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1612,7 +1612,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -30334,8 +30334,8 @@
   </sheetPr>
   <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="64" zoomScaleNormal="100" zoomScaleSheetLayoutView="64" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5"/>
@@ -30853,7 +30853,7 @@
     <mergeCell ref="G37:H37"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" scale="86" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="1" scale="83" fitToHeight="0" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
